--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1267.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1267.xlsx
@@ -351,10 +351,10 @@
         <v>1.595190024478715</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.157272909648774</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1267.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1267.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.595190024478715</v>
+        <v>1.184569597244263</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.196457624435425</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>10.52311229705811</v>
       </c>
       <c r="D1">
-        <v>1.157272909648774</v>
+        <v>2.570541143417358</v>
       </c>
       <c r="E1">
-        <v>0.7588534125779479</v>
+        <v>1.238157749176025</v>
       </c>
     </row>
   </sheetData>
